--- a/East_ End_ A_distrikt/point30/point30_159_1.xlsx
+++ b/East_ End_ A_distrikt/point30/point30_159_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikl\Desktop\Quarter på Sanct Croix\East_ End_ A_distrikt\point30\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B3022-2282-41CC-BFB2-7BFBA6467478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,91 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>A List of Negues Belonging to</t>
+  </si>
+  <si>
+    <t>Henry Stridiron December 21 the 1799</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Boys</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Clarissa</t>
+  </si>
+  <si>
+    <t>Monnea</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>Vilot</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Toney</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Jessey</t>
+  </si>
+  <si>
+    <t>December 21 the 1799</t>
+  </si>
+  <si>
+    <t>Henry Strideron</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF363636"/>
+      <name val="Noto Sans Display"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF363636"/>
+      <name val="Noto Naskh Arabic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +119,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +127,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +439,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="36">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" ht="36">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="36">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" ht="72">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" ht="72">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" ht="72">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" ht="36" customHeight="1">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" ht="36">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" ht="36">
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" ht="36">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>